--- a/201601模板.xlsx
+++ b/201601模板.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9495" windowHeight="8670"/>
+    <workbookView windowWidth="20880" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="国内" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">国内!$A$2:$Z$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -25,16 +27,29 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">14个字符，汉字算2个字符
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 60010301</t>
         </r>
       </text>
@@ -44,7 +59,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -58,11 +72,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 ccode 2202</t>
         </r>
       </text>
@@ -72,11 +85,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 ccode：64010301</t>
         </r>
       </text>
@@ -86,11 +98,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 ccode 64010302</t>
         </r>
       </text>
@@ -100,7 +111,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -124,11 +134,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 60010301</t>
         </r>
       </text>
@@ -138,7 +147,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -152,11 +160,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 ccode：64010301</t>
         </r>
       </text>
@@ -166,11 +173,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 ccode 64010302</t>
         </r>
       </text>
@@ -179,8 +185,110 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">14个字符，汉字算2个字符
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+60010301</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+ccode 2202</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+ccode：64010301</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+ccode 64010302</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>重庆驴妈妈2017年1.1-1.31国内事业部对账单</t>
   </si>
@@ -269,301 +377,334 @@
     <t>制单人</t>
   </si>
   <si>
-    <t>项目编码</t>
-  </si>
-  <si>
-    <t>国内部</t>
+    <t>客户单位</t>
+  </si>
+  <si>
+    <t>供应商1</t>
+  </si>
+  <si>
+    <t>总经办</t>
+  </si>
+  <si>
+    <t>肖燕</t>
+  </si>
+  <si>
+    <t>天坑三桥2日游</t>
+  </si>
+  <si>
+    <t>重庆金盾国际旅行社有限公司</t>
+  </si>
+  <si>
+    <t>邓宗碧</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>重庆新旅程国旅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>国内BU</t>
+  </si>
+  <si>
+    <t>[i_id]</t>
+  </si>
+  <si>
+    <t>自增</t>
+  </si>
+  <si>
+    <t>[iperiod]</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>[csign]</t>
+  </si>
+  <si>
+    <t>记</t>
+  </si>
+  <si>
+    <t>[isignseq]</t>
+  </si>
+  <si>
+    <t>[ino_id]</t>
+  </si>
+  <si>
+    <t>自增，对应凭证的 记 。一个项目下所有的分录公用一个ino_id</t>
+  </si>
+  <si>
+    <t>[inid]</t>
+  </si>
+  <si>
+    <t>1-7对应7条分录</t>
+  </si>
+  <si>
+    <t>[dbill_date]</t>
+  </si>
+  <si>
+    <t>[idoc]</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>[cbill]</t>
+  </si>
+  <si>
+    <t>[ccheck]</t>
+  </si>
+  <si>
+    <t>[cbook]</t>
+  </si>
+  <si>
+    <t>[ibook]</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ccashier] </t>
+  </si>
+  <si>
+    <t>[iflag]</t>
+  </si>
+  <si>
+    <t>[ctext1]</t>
+  </si>
+  <si>
+    <t>[ctext2]</t>
+  </si>
+  <si>
+    <t>[cdigest]</t>
+  </si>
+  <si>
+    <t>确认[所属BU]线上项目《[项目表的citemcode字段]》收入（1-4条分录）/成本</t>
+  </si>
+  <si>
+    <t>[ccode]</t>
+  </si>
+  <si>
+    <t>一个凭证有7个分录，分别为1122,60010301,1122,60010302,64010301,64010302,2202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[cexch_name] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[md] </t>
+  </si>
+  <si>
+    <t>一个凭证有7个分录，分别为330,0,10,0,330,-2.64，0</t>
+  </si>
+  <si>
+    <t>[mc]</t>
+  </si>
+  <si>
+    <t>一个凭证有7个分录，分别为0,330,0,10,0,0，327.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[md_f] </t>
+  </si>
+  <si>
+    <t>[mc_f]</t>
+  </si>
+  <si>
+    <t>[nfrat]</t>
+  </si>
+  <si>
+    <t>[nd_s]</t>
+  </si>
+  <si>
+    <t>[nc_s]</t>
+  </si>
+  <si>
+    <t>[csettle]</t>
+  </si>
+  <si>
+    <t>[cn_id]</t>
+  </si>
+  <si>
+    <t>根据[ccode]值为1122或者2202录入 订单号 ，其他为null</t>
+  </si>
+  <si>
+    <t>[dt_date]</t>
+  </si>
+  <si>
+    <t>根据[ccode]值为1122或者2202录入 出游时间 ，其他为null</t>
+  </si>
+  <si>
+    <t>[cdept_id]</t>
+  </si>
+  <si>
+    <t>[cperson_id]</t>
+  </si>
+  <si>
+    <t>[ccus_id]</t>
+  </si>
+  <si>
+    <t>0006,null,0003,null,null,null,null</t>
+  </si>
+  <si>
+    <t>[csup_id]</t>
+  </si>
+  <si>
+    <t>null,null,null,null，null,null,供应商代码</t>
+  </si>
+  <si>
+    <t>[citem_id]</t>
+  </si>
+  <si>
+    <t>[项目表的citemcode字段]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[citem_class] </t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>[cname]</t>
+  </si>
+  <si>
+    <t>根据[ccode]值为1122或者2202录入 业务员</t>
+  </si>
+  <si>
+    <t>[ccode_equal]</t>
+  </si>
+  <si>
+    <t>60010301,60010302,2202|1122,64010301,64010302,(1,2,1,2,1,1,2)</t>
+  </si>
+  <si>
+    <t>[iflagbank]</t>
+  </si>
+  <si>
+    <t>[iflagPerson]</t>
+  </si>
+  <si>
+    <t>[bdelete]</t>
+  </si>
+  <si>
+    <t>[coutaccset]</t>
+  </si>
+  <si>
+    <t>[ioutyear]</t>
+  </si>
+  <si>
+    <t>[coutsysname]</t>
+  </si>
+  <si>
+    <t>[coutsysver]</t>
+  </si>
+  <si>
+    <t>[doutbilldate]</t>
+  </si>
+  <si>
+    <t>[ioutperiod]</t>
+  </si>
+  <si>
+    <t>[coutsign]</t>
+  </si>
+  <si>
+    <t>非null的空</t>
+  </si>
+  <si>
+    <t>[coutno_id]</t>
+  </si>
+  <si>
+    <t>[doutdate]</t>
+  </si>
+  <si>
+    <t>[coutbillsign]</t>
+  </si>
+  <si>
+    <t>[coutid]</t>
+  </si>
+  <si>
+    <t>[bvouchedit]</t>
+  </si>
+  <si>
+    <t>[bvouchAddordele]</t>
+  </si>
+  <si>
+    <t>[bvouchmoneyhold]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bvalueedit] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bcodeedit] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ccodecontrol] </t>
+  </si>
+  <si>
+    <t>前两个分录为null，后五个分录为***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bPCSedit] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bDeptedit] </t>
+  </si>
+  <si>
+    <t>[bItemedit]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bCusSupInput] </t>
+  </si>
+  <si>
+    <t>[cDefine1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[cDefine2] </t>
+  </si>
+  <si>
+    <t>[c Define3]</t>
+  </si>
+  <si>
+    <t>[cDefine4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[cDefine5] </t>
+  </si>
+  <si>
+    <t>[cDefine6]</t>
+  </si>
+  <si>
+    <t>[cDefine7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[cDefine8] </t>
+  </si>
+  <si>
+    <t>[cDefine9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[cDefine10] </t>
+  </si>
+  <si>
+    <t>门票BU</t>
+  </si>
+  <si>
+    <t>一个凭证有7个分录，分别为1122,60010101,1122,60010102,64010101,64010102,2202</t>
+  </si>
+  <si>
+    <t>目的地BU</t>
+  </si>
+  <si>
+    <t>一个凭证有7个分录，分别为1122,60010202,1122,60010203,64010202,64010203,2202</t>
+  </si>
+  <si>
+    <t>出境BU</t>
   </si>
   <si>
     <t>袁莉</t>
   </si>
   <si>
-    <t>地坑一日游</t>
-  </si>
-  <si>
-    <t>金盾国旅</t>
-  </si>
-  <si>
-    <t>邓宗碧</t>
-  </si>
-  <si>
-    <t>20160103天坑一日游</t>
-  </si>
-  <si>
-    <t>[i_id]</t>
-  </si>
-  <si>
-    <t>自增</t>
-  </si>
-  <si>
-    <t>[iperiod]</t>
-  </si>
-  <si>
-    <t>[csign]</t>
-  </si>
-  <si>
-    <t>记</t>
-  </si>
-  <si>
-    <t>[isignseq]</t>
-  </si>
-  <si>
-    <t>[ino_id]</t>
-  </si>
-  <si>
-    <t>自增，对应凭证的 记 。一个项目下所有的分录公用一个ino_id</t>
-  </si>
-  <si>
-    <t>[inid]</t>
-  </si>
-  <si>
-    <t>1-7对应7条分录</t>
-  </si>
-  <si>
-    <t>[dbill_date]</t>
-  </si>
-  <si>
-    <t>[idoc]</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>[cbill]</t>
-  </si>
-  <si>
-    <t>[ccheck]</t>
-  </si>
-  <si>
-    <t>[cbook]</t>
-  </si>
-  <si>
-    <t>[ibook]</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ccashier] </t>
-  </si>
-  <si>
-    <t>[iflag]</t>
-  </si>
-  <si>
-    <t>[ctext1]</t>
-  </si>
-  <si>
-    <t>[ctext2]</t>
-  </si>
-  <si>
-    <t>[cdigest]</t>
-  </si>
-  <si>
-    <t>确认[所属BU]线上项目《[项目表的citemcode字段]》收入（1-4条分录）/成本</t>
-  </si>
-  <si>
-    <t>[ccode]</t>
-  </si>
-  <si>
-    <t>一个凭证有7个分录，分别为1122,60010301,1122,60010302,64010301,64010302,2202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[cexch_name] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[md] </t>
-  </si>
-  <si>
-    <t>一个凭证有7个分录，分别为330,0,10,0,330,-2.64，0</t>
-  </si>
-  <si>
-    <t>[mc]</t>
-  </si>
-  <si>
-    <t>一个凭证有7个分录，分别为0,330,0,10,0,0，327.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[md_f] </t>
-  </si>
-  <si>
-    <t>[mc_f]</t>
-  </si>
-  <si>
-    <t>[nfrat]</t>
-  </si>
-  <si>
-    <t>[nd_s]</t>
-  </si>
-  <si>
-    <t>[nc_s]</t>
-  </si>
-  <si>
-    <t>[csettle]</t>
-  </si>
-  <si>
-    <t>[cn_id]</t>
-  </si>
-  <si>
-    <t>根据[ccode]值为1122或者2202录入 订单号 ，其他为null</t>
-  </si>
-  <si>
-    <t>[dt_date]</t>
-  </si>
-  <si>
-    <t>根据[ccode]值为1122或者2202录入 出游时间 ，其他为null</t>
-  </si>
-  <si>
-    <t>[cdept_id]</t>
-  </si>
-  <si>
-    <t>[cperson_id]</t>
-  </si>
-  <si>
-    <t>[ccus_id]</t>
-  </si>
-  <si>
-    <t>0006,null,0003,null,null,null,null</t>
-  </si>
-  <si>
-    <t>[csup_id]</t>
-  </si>
-  <si>
-    <t>null,null,null,null，null,null,供应商代码</t>
-  </si>
-  <si>
-    <t>[citem_id]</t>
-  </si>
-  <si>
-    <t>[项目表的citemcode字段]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[citem_class] </t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>[cname]</t>
-  </si>
-  <si>
-    <t>根据[ccode]值为1122或者2202录入 业务员</t>
-  </si>
-  <si>
-    <t>[ccode_equal]</t>
-  </si>
-  <si>
-    <t>60010301,60010302,2202|1122,64010301,64010302,(1,2,1,2,1,1,2)</t>
-  </si>
-  <si>
-    <t>[iflagbank]</t>
-  </si>
-  <si>
-    <t>[iflagPerson]</t>
-  </si>
-  <si>
-    <t>[bdelete]</t>
-  </si>
-  <si>
-    <t>[coutaccset]</t>
-  </si>
-  <si>
-    <t>[ioutyear]</t>
-  </si>
-  <si>
-    <t>[coutsysname]</t>
-  </si>
-  <si>
-    <t>[coutsysver]</t>
-  </si>
-  <si>
-    <t>[doutbilldate]</t>
-  </si>
-  <si>
-    <t>[ioutperiod]</t>
-  </si>
-  <si>
-    <t>[coutsign]</t>
-  </si>
-  <si>
-    <t>非null的空</t>
-  </si>
-  <si>
-    <t>[coutno_id]</t>
-  </si>
-  <si>
-    <t>[doutdate]</t>
-  </si>
-  <si>
-    <t>[coutbillsign]</t>
-  </si>
-  <si>
-    <t>[coutid]</t>
-  </si>
-  <si>
-    <t>[bvouchedit]</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>[bvouchAddordele]</t>
-  </si>
-  <si>
-    <t>[bvouchmoneyhold]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[bvalueedit] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[bcodeedit] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ccodecontrol] </t>
-  </si>
-  <si>
-    <t>前两个分录为null，后五个分录为***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[bPCSedit] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[bDeptedit] </t>
-  </si>
-  <si>
-    <t>[bItemedit]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[bCusSupInput] </t>
-  </si>
-  <si>
-    <t>[cDefine1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[cDefine2] </t>
-  </si>
-  <si>
-    <t>[c Define3]</t>
-  </si>
-  <si>
-    <t>[cDefine4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[cDefine5] </t>
-  </si>
-  <si>
-    <t>[cDefine6]</t>
-  </si>
-  <si>
-    <t>[cDefine7]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[cDefine8] </t>
-  </si>
-  <si>
-    <t>[cDefine9]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[cDefine10] </t>
+    <t>天坑三桥1日游</t>
   </si>
 </sst>
 </file>
@@ -571,12 +712,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,11 +726,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="14"/>
+      <color indexed="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -604,14 +745,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="0"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -628,9 +768,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -641,22 +781,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,8 +797,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -681,6 +823,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,38 +860,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,22 +889,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -763,9 +896,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,6 +916,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -787,13 +934,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="50"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,43 +970,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,133 +1120,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,19 +1136,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1027,6 +1161,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1069,26 +1216,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,17 +1255,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,6 +1277,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,8 +1308,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,206 +1318,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1381,67 +1519,79 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接_1月" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="超链接_1月" xfId="25"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1452,7 +1602,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="555555"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1735,267 +1885,264 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="3" customWidth="1"/>
-    <col min="2" max="3" width="7.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="8.375" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.375" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="11" style="3" customWidth="1"/>
-    <col min="23" max="23" width="9" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="6.125" style="3" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="12.625" style="3" hidden="1" customWidth="1"/>
-    <col min="26" max="28" width="12.25" style="3" customWidth="1"/>
-    <col min="29" max="29" width="19.375" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4.25" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.375" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="6.125" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.625" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="28" width="12.25" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9" style="23"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30.75" customHeight="1" spans="1:28">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:29">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="44.25" customHeight="1" spans="1:29">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="23"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="44.25" customHeight="1" spans="1:30">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:29">
-      <c r="A3" s="11">
+      <c r="AD2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:30">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12">
-        <v>25795092</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12">
-        <v>330</v>
-      </c>
-      <c r="M3" s="11"/>
+      <c r="D3" s="10">
+        <v>25795093</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="11">
+        <v>3500</v>
+      </c>
+      <c r="M3" s="9"/>
       <c r="N3" s="11">
-        <v>10</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11" t="s">
-        <v>33</v>
+        <v>200</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="R3" s="11">
-        <v>330</v>
-      </c>
-      <c r="S3" s="16">
-        <v>2.64</v>
-      </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11">
-        <f>+R3-S3</f>
-        <v>327.36</v>
-      </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="21">
-        <v>42399</v>
-      </c>
-      <c r="AA3" s="22">
+        <v>3500</v>
+      </c>
+      <c r="S3" s="11">
+        <v>190</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9">
+        <v>3500</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="19">
+        <v>42372</v>
+      </c>
+      <c r="AA3" s="20">
         <v>42400</v>
       </c>
-      <c r="AB3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AB3" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="19:19">
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="19:19">
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="19:19">
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="15" customHeight="1" spans="19:19">
-      <c r="S7" s="17"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="19:19">
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="19:19">
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="19:19">
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="19:19">
-      <c r="S11" s="17"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="19:19">
-      <c r="S12" s="17"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="19:19">
-      <c r="S13" s="17"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="19:19">
-      <c r="S14" s="17"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="19:19">
-      <c r="S15" s="17"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="19:19">
-      <c r="S16" s="17"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="19:19">
-      <c r="S17" s="17"/>
+      <c r="AC3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="19:29">
+      <c r="S4" s="14"/>
+      <c r="AC4" s="23"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="19:29">
+      <c r="S5" s="14"/>
+      <c r="AC5" s="23"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="19:29">
+      <c r="S6" s="14"/>
+      <c r="AC6" s="23"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="19:29">
+      <c r="S7" s="14"/>
+      <c r="AC7" s="23"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="19:29">
+      <c r="S8" s="14"/>
+      <c r="AC8" s="23"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="19:29">
+      <c r="S9" s="14"/>
+      <c r="AC9" s="23"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="19:29">
+      <c r="S10" s="14"/>
+      <c r="AC10" s="23"/>
+    </row>
+    <row r="17" spans="17:17">
+      <c r="Q17" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:Z3"/>
@@ -2015,59 +2162,59 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="5" max="6" width="9.375"/>
     <col min="8" max="9" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="44.25" customHeight="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="44.25" customHeight="1" spans="1:13">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>60010301</v>
@@ -2098,7 +2245,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2">
@@ -2116,493 +2263,800 @@
   <sheetPr/>
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="77.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="77.75" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1">
+        <v>46</v>
+      </c>
+      <c r="B4" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>74</v>
+      <c r="A28" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>76</v>
+      <c r="A29" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>88</v>
+      <c r="A36" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>113</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>53</v>
+        <v>121</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="102.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" customHeight="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:2">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.25" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.375" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="6.125" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.625" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="28" width="12.25" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:28">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="44.25" customHeight="1" spans="1:28">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:28">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="10">
+        <v>25795092</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="11">
+        <v>460</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="11">
+        <v>10</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
+        <v>2.64</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9">
+        <f>+R3-S3</f>
+        <v>-2.64</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="19">
+        <v>42372</v>
+      </c>
+      <c r="AA3" s="20">
+        <v>42400</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="19:19">
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="19:19">
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="19:19">
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="19:19">
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="19:19">
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="19:19">
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="19:19">
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="19:19">
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="19:19">
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="19:19">
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="19:19">
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="19:19">
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="19:19">
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="17:19">
+      <c r="Q17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Z1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>